--- a/medicine/Psychotrope/Girvan_(distillerie)/Girvan_(distillerie).xlsx
+++ b/medicine/Psychotrope/Girvan_(distillerie)/Girvan_(distillerie).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Girvan est une distillerie de whisky située à Girvan, dans le South Ayrshire en Écosse.
@@ -512,11 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La distillerie Girvan fut érigée en 1963 dans la commune de même nom, sur le terrain d'une ancienne fabrique de munitions de la Seconde Guerre mondiale. Avant cette date, William Grant &amp; Sons, les fondateurs et propriétaires de Glenfiddich et Balvenie, avaient étendu leur domaine d'activité à la fabrication de blends. Mais un litige les opposa à Distillers Company Ltd. qui contrôlait une grande partie de la production de whisky de grain nécessaire à l'élaboration des blends. C'est ce qui avait décidé William Grant &amp; Sons de produire leur propre whisky de grain. Girvan fait aujourd'hui partie des plus grandes distilleries du pays.
-Ladyburn
-En 1966, William Grant &amp; Sons ont inauguré une distillerie, appelée Ladyburn, destinée à la production de whisky de malt sur le terrain de la distillerie Girvan. Il s'agissait d'une distillerie expérimentale qui devait produire du malt destiné à servir de composant à des blends. Mais la production fut stoppée dès 1975 afin de permettre l'agrandissement de la distillerie Girvan. Les bâtiments ont été démolis en 1976.
 </t>
         </is>
       </c>
@@ -542,13 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Production</t>
+          <t>Historique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">L'eau nécessaire à la production de Girvan provient du Penwapple reservoir. La distillation s'effectue dans un coffey still et un continuous still.
-La distillerie Ladyburn utilisait également de l'eau du Penwapple reservoir et la distillation s'effectuait dans deux wash stills et deux spirit stills.
+          <t>Ladyburn</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1966, William Grant &amp; Sons ont inauguré une distillerie, appelée Ladyburn, destinée à la production de whisky de malt sur le terrain de la distillerie Girvan. Il s'agissait d'une distillerie expérimentale qui devait produire du malt destiné à servir de composant à des blends. Mais la production fut stoppée dès 1975 afin de permettre l'agrandissement de la distillerie Girvan. Les bâtiments ont été démolis en 1976.
 </t>
         </is>
       </c>
@@ -574,10 +591,46 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Production</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'eau nécessaire à la production de Girvan provient du Penwapple reservoir. La distillation s'effectue dans un coffey still et un continuous still.
+La distillerie Ladyburn utilisait également de l'eau du Penwapple reservoir et la distillation s'effectuait dans deux wash stills et deux spirit stills.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Girvan_(distillerie)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Girvan_(distillerie)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Embouteillage</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L'essentiel du whisky de grain de Girvan est destiné à l'élaboration de blends. Depuis 1995, un whisky single grain est embouteillé sous le nom de Black Barrel.
 </t>
